--- a/excel/menu2018115-2018119.xlsx
+++ b/excel/menu2018115-2018119.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="69">
   <si>
     <t>學校</t>
   </si>
@@ -110,118 +110,115 @@
     <t>肉羹湯</t>
   </si>
   <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>777.8</t>
+  </si>
+  <si>
+    <t>2018/1/16</t>
+  </si>
+  <si>
+    <t>檸檬雞翅</t>
+  </si>
+  <si>
+    <t>沙茶菇菇</t>
+  </si>
+  <si>
+    <t>炒小白菜</t>
+  </si>
+  <si>
+    <t>福菜竹筍排骨湯</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>737.5</t>
+  </si>
+  <si>
+    <t>2018/1/17</t>
+  </si>
+  <si>
+    <t>醬燒洋蔥豬</t>
+  </si>
+  <si>
+    <t>滷包心白豆皮</t>
+  </si>
+  <si>
+    <t>吻仔魚炒蛋</t>
+  </si>
+  <si>
+    <t>八寶粥</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>743.4</t>
+  </si>
+  <si>
+    <t>2018/1/18</t>
+  </si>
+  <si>
+    <t>紅燒肉</t>
+  </si>
+  <si>
+    <t>蛤蠣燴絲瓜</t>
+  </si>
+  <si>
+    <t>炒高麗菜</t>
+  </si>
+  <si>
+    <t>榨菜肉絲湯</t>
+  </si>
+  <si>
     <t>4.1</t>
   </si>
   <si>
     <t>2.6</t>
   </si>
   <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>798.8</t>
-  </si>
-  <si>
-    <t>2018/1/16</t>
-  </si>
-  <si>
-    <t>檸檬雞翅</t>
-  </si>
-  <si>
-    <t>沙茶菇菇</t>
-  </si>
-  <si>
-    <t>炒小白菜</t>
-  </si>
-  <si>
-    <t>福菜竹筍排骨湯</t>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>743.7</t>
+  </si>
+  <si>
+    <t>2018/1/19</t>
+  </si>
+  <si>
+    <t>炸柳葉魚</t>
+  </si>
+  <si>
+    <t>螞蟻上樹</t>
+  </si>
+  <si>
+    <t>炒A菜</t>
+  </si>
+  <si>
+    <t>酸菜豬肉湯</t>
   </si>
   <si>
     <t>4.5</t>
   </si>
   <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>782.1</t>
-  </si>
-  <si>
-    <t>2018/1/17</t>
-  </si>
-  <si>
-    <t>醬燒洋蔥豬</t>
-  </si>
-  <si>
-    <t>滷包心白豆皮</t>
-  </si>
-  <si>
-    <t>吻仔魚炒蛋</t>
-  </si>
-  <si>
-    <t>八寶粥</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>708.9</t>
-  </si>
-  <si>
-    <t>2018/1/18</t>
-  </si>
-  <si>
-    <t>紅燒肉</t>
-  </si>
-  <si>
-    <t>蛤蠣燴絲瓜</t>
-  </si>
-  <si>
-    <t>炒高麗菜</t>
-  </si>
-  <si>
-    <t>榨菜肉絲湯</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>761.2</t>
-  </si>
-  <si>
-    <t>2018/1/19</t>
-  </si>
-  <si>
-    <t>炸柳葉魚</t>
-  </si>
-  <si>
-    <t>螞蟻上樹</t>
-  </si>
-  <si>
-    <t>炒A菜</t>
-  </si>
-  <si>
-    <t>酸菜豬肉湯</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>701.2</t>
+    <t>788.0</t>
   </si>
 </sst>
 </file>
@@ -411,19 +408,19 @@
         <v>33</v>
       </c>
       <c r="U2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" t="s">
         <v>34</v>
       </c>
-      <c r="V2" t="s">
-        <v>35</v>
-      </c>
       <c r="W2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" t="s">
         <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -431,7 +428,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -440,67 +437,67 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
         <v>39</v>
       </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>40</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
         <v>41</v>
       </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>43</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" t="s">
         <v>44</v>
       </c>
-      <c r="U3" t="s">
-        <v>44</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" t="s">
         <v>45</v>
-      </c>
-      <c r="W3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +505,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -517,41 +514,41 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
         <v>48</v>
       </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>49</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
         <v>50</v>
       </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" t="s">
-        <v>51</v>
-      </c>
       <c r="Q4" t="s">
         <v>27</v>
       </c>
@@ -559,25 +556,25 @@
         <v>27</v>
       </c>
       <c r="S4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T4" t="s">
         <v>33</v>
       </c>
       <c r="U4" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" t="s">
+        <v>44</v>
+      </c>
+      <c r="W4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" t="s">
         <v>52</v>
-      </c>
-      <c r="V4" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" t="s">
-        <v>36</v>
-      </c>
-      <c r="X4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -585,7 +582,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -594,67 +591,67 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
         <v>56</v>
       </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
         <v>57</v>
       </c>
-      <c r="J5" t="s">
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" t="s">
         <v>58</v>
       </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="T5" t="s">
         <v>59</v>
       </c>
-      <c r="Q5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T5" t="s">
-        <v>44</v>
-      </c>
       <c r="U5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" t="s">
         <v>60</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y5" t="s">
         <v>61</v>
-      </c>
-      <c r="W5" t="s">
-        <v>36</v>
-      </c>
-      <c r="X5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -662,7 +659,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -671,67 +668,67 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
         <v>64</v>
       </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>65</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
         <v>66</v>
       </c>
-      <c r="K6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" t="s">
         <v>67</v>
       </c>
-      <c r="Q6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V6" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y6" t="s">
         <v>68</v>
-      </c>
-      <c r="T6" t="s">
-        <v>34</v>
-      </c>
-      <c r="U6" t="s">
-        <v>34</v>
-      </c>
-      <c r="V6" t="s">
-        <v>61</v>
-      </c>
-      <c r="W6" t="s">
-        <v>36</v>
-      </c>
-      <c r="X6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
